--- a/Assets/Dialogs/DialogDB_Lake.xlsx
+++ b/Assets/Dialogs/DialogDB_Lake.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\LGHNH_Project\Assets\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB62A71-A70D-41D3-9767-973C8733CCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E41BC11-5BA0-49F2-88B8-6CDC85ADCFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{CDE8FF25-D89C-42B6-B5F0-688FBD2DA1BA}"/>
   </bookViews>
@@ -825,7 +825,7 @@
   <dimension ref="A1:H1068"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="15" customHeight="1"/>

--- a/Assets/Dialogs/DialogDB_Lake.xlsx
+++ b/Assets/Dialogs/DialogDB_Lake.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\LGHNH_Project\Assets\Dialogs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b4d1236af1f427cd/Documents/GitHub/LGHNH_Project/Assets/Dialogs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E41BC11-5BA0-49F2-88B8-6CDC85ADCFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{3E41BC11-5BA0-49F2-88B8-6CDC85ADCFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17B51DD5-2143-49C0-9D0E-C039F0E13432}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{CDE8FF25-D89C-42B6-B5F0-688FBD2DA1BA}"/>
+    <workbookView xWindow="38280" yWindow="10350" windowWidth="24240" windowHeight="13020" xr2:uid="{CDE8FF25-D89C-42B6-B5F0-688FBD2DA1BA}"/>
   </bookViews>
   <sheets>
     <sheet name="lake" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="107">
   <si>
     <t>기쁨</t>
   </si>
@@ -59,9 +59,6 @@
     <t>피곤</t>
   </si>
   <si>
-    <t>수락</t>
-  </si>
-  <si>
     <t>dialog</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>순번</t>
   </si>
   <si>
-    <t>대화</t>
-  </si>
-  <si>
     <t>좋아! 그럼 새로운 모험을 시작해볼까!</t>
   </si>
   <si>
@@ -215,9 +209,6 @@
     <t>으음...! 내가 얼마나 정신을 잃고 있었던 거지?</t>
   </si>
   <si>
-    <t>투카! 기운을 차려서 정말 다행이야. 얼마나 걱정했는지 몰라.</t>
-  </si>
-  <si>
     <t>르모</t>
   </si>
   <si>
@@ -348,6 +339,24 @@
   </si>
   <si>
     <t>솔라넥타르호수</t>
+  </si>
+  <si>
+    <t>수락(자동)</t>
+  </si>
+  <si>
+    <t>완료(자동)</t>
+  </si>
+  <si>
+    <t>카메라 이동</t>
+  </si>
+  <si>
+    <t>투카에게 카메라 이동</t>
+  </si>
+  <si>
+    <t>투카! 기운을 차려서 다행이야.</t>
+  </si>
+  <si>
+    <t>럭키에게 카메라 이동</t>
   </si>
 </sst>
 </file>
@@ -406,7 +415,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,6 +438,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD8D8D8"/>
         <bgColor rgb="FFD8D8D8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -464,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -496,13 +511,19 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -523,6 +544,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -825,7 +850,7 @@
   <dimension ref="A1:H1068"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="15" customHeight="1"/>
@@ -843,42 +868,42 @@
   <sheetData>
     <row r="1" spans="1:8" ht="35.25" customHeight="1" thickBot="1">
       <c r="A1" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>103</v>
+      <c r="B2" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -890,15 +915,15 @@
         <v>0</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="7"/>
       <c r="E3" s="4">
         <v>1</v>
@@ -910,15 +935,15 @@
         <v>6</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="7"/>
       <c r="E4" s="4">
         <v>1</v>
@@ -930,15 +955,15 @@
         <v>1</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4">
         <v>1</v>
@@ -950,37 +975,35 @@
         <v>3</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="4">
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4">
         <v>1</v>
@@ -992,15 +1015,15 @@
         <v>1</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4">
         <v>1</v>
@@ -1012,55 +1035,55 @@
         <v>1</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4">
         <v>1</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" customHeight="1">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4">
         <v>1</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" customHeight="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4">
         <v>1</v>
@@ -1072,15 +1095,15 @@
         <v>1</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" customHeight="1">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4">
         <v>1</v>
@@ -1092,75 +1115,75 @@
         <v>1</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" customHeight="1">
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4">
         <v>1</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.5" customHeight="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4">
         <v>1</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4">
         <v>1</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.5" customHeight="1">
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4">
         <v>1</v>
@@ -1172,17 +1195,17 @@
         <v>0</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="19.5" customHeight="1">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="4" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="E17" s="4">
         <v>2</v>
@@ -1194,35 +1217,35 @@
         <v>0</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="19.5" customHeight="1">
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="7"/>
       <c r="E18" s="4">
         <v>2</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="19.5" customHeight="1">
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4">
         <v>2</v>
@@ -1234,35 +1257,35 @@
         <v>1</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="19.5" customHeight="1">
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4">
         <v>2</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="19.5" customHeight="1">
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4">
         <v>2</v>
@@ -1274,35 +1297,35 @@
         <v>1</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="19.5" customHeight="1">
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4">
         <v>2</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="19.5" customHeight="1">
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4">
         <v>2</v>
@@ -1314,22 +1337,22 @@
         <v>0</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="19.5" customHeight="1">
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="14" t="s">
-        <v>79</v>
+      <c r="B24" s="14"/>
+      <c r="C24" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="E24" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>4</v>
@@ -1338,18 +1361,18 @@
         <v>0</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="19.5" customHeight="1">
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="7"/>
       <c r="E25" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>2</v>
@@ -1358,197 +1381,195 @@
         <v>0</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.5" customHeight="1">
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="7"/>
       <c r="E26" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="19.5" customHeight="1">
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="7"/>
       <c r="E27" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.5" customHeight="1">
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="7"/>
       <c r="E28" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.5" customHeight="1">
       <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="4">
         <v>3</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.5" customHeight="1">
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4">
         <v>3</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.5" customHeight="1">
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4">
         <v>3</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" customHeight="1">
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4">
         <v>3</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="19.5" customHeight="1">
       <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4">
         <v>3</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="19.5" customHeight="1">
       <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4">
         <v>3</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="19.5" customHeight="1">
       <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4">
         <v>3</v>
@@ -1560,15 +1581,15 @@
         <v>1</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="19.5" customHeight="1">
       <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4">
         <v>3</v>
@@ -1580,75 +1601,75 @@
         <v>1</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="19.5" customHeight="1">
       <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4">
         <v>3</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="19.5" customHeight="1">
       <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4">
         <v>3</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="19.5" customHeight="1">
       <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4">
         <v>3</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="19.5" customHeight="1">
       <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4">
         <v>3</v>
@@ -1660,15 +1681,15 @@
         <v>0</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="19.5" customHeight="1">
       <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4">
         <v>3</v>
@@ -1680,164 +1701,158 @@
         <v>0</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="19.5" customHeight="1">
       <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="4">
-        <v>4</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>59</v>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="12" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="19.5" customHeight="1">
       <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4">
         <v>4</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="19.5" customHeight="1">
       <c r="A44" s="4">
-        <v>23</v>
-      </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4">
         <v>4</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="19.5" customHeight="1">
       <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4">
         <v>4</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="19.5" customHeight="1">
       <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4">
         <v>4</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="19.5" customHeight="1">
       <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4">
         <v>4</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="19.5" customHeight="1">
       <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="4"/>
       <c r="E48" s="4">
         <v>4</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="19.5" customHeight="1">
       <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="4"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="E49" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>50</v>
@@ -1853,150 +1868,148 @@
       <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="19.5" customHeight="1">
       <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4">
+        <v>5</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="G51" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="19.5" customHeight="1">
       <c r="A52" s="4">
         <v>51</v>
       </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="19.5" customHeight="1">
       <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="19.5" customHeight="1">
       <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4">
+        <v>5</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="G54" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="19.5" customHeight="1">
       <c r="A55" s="4">
         <v>54</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H55" s="6" t="s">
-        <v>43</v>
+      <c r="H55" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="19.5" customHeight="1">
       <c r="A56" s="4">
         <v>55</v>
       </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="4"/>
       <c r="E56" s="4">
         <v>5</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="19.5" customHeight="1">
       <c r="A57" s="4">
         <v>56</v>
       </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4">
         <v>5</v>
@@ -2005,64 +2018,64 @@
         <v>4</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="19.5" customHeight="1">
       <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4">
         <v>5</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="19.5" customHeight="1">
       <c r="A59" s="4">
         <v>58</v>
       </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4">
         <v>5</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="19.5" customHeight="1">
       <c r="A60" s="4">
         <v>59</v>
       </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4">
         <v>5</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>1</v>
@@ -2075,96 +2088,92 @@
       <c r="A61" s="4">
         <v>60</v>
       </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4">
         <v>5</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="19.5" customHeight="1">
       <c r="A62" s="4">
         <v>61</v>
       </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4">
         <v>5</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="19.5" customHeight="1">
       <c r="A63" s="4">
         <v>62</v>
       </c>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="4" t="s">
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4">
         <v>5</v>
       </c>
-      <c r="E63" s="4">
-        <v>6</v>
-      </c>
       <c r="F63" s="4" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="19.5" customHeight="1">
       <c r="A64" s="4">
         <v>63</v>
       </c>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4">
-        <v>6</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>33</v>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="12" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="19.5" customHeight="1">
       <c r="A65" s="4">
         <v>64</v>
       </c>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="4"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="E65" s="4">
         <v>6</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>0</v>
@@ -2177,17 +2186,17 @@
       <c r="A66" s="4">
         <v>65</v>
       </c>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4">
         <v>6</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" s="5" t="s">
         <v>31</v>
@@ -2197,17 +2206,17 @@
       <c r="A67" s="4">
         <v>66</v>
       </c>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4">
         <v>6</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>30</v>
@@ -2217,17 +2226,17 @@
       <c r="A68" s="4">
         <v>67</v>
       </c>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4">
         <v>6</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>29</v>
@@ -2237,14 +2246,14 @@
       <c r="A69" s="4">
         <v>68</v>
       </c>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4">
         <v>6</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>1</v>
@@ -2257,14 +2266,14 @@
       <c r="A70" s="4">
         <v>69</v>
       </c>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4">
         <v>6</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>1</v>
@@ -2277,19 +2286,19 @@
       <c r="A71" s="4">
         <v>70</v>
       </c>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4">
         <v>6</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H71" s="6" t="s">
+      <c r="H71" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2297,19 +2306,19 @@
       <c r="A72" s="4">
         <v>71</v>
       </c>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4">
         <v>6</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H72" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H72" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2317,14 +2326,14 @@
       <c r="A73" s="4">
         <v>72</v>
       </c>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4">
         <v>6</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>1</v>
@@ -2337,19 +2346,19 @@
       <c r="A74" s="4">
         <v>73</v>
       </c>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4">
         <v>6</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H74" s="5" t="s">
+      <c r="H74" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2357,14 +2366,14 @@
       <c r="A75" s="4">
         <v>74</v>
       </c>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4">
         <v>6</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>1</v>
@@ -2377,57 +2386,57 @@
       <c r="A76" s="4">
         <v>75</v>
       </c>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4">
         <v>6</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H76" s="6" t="s">
-        <v>20</v>
+      <c r="H76" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="19.5" customHeight="1">
       <c r="A77" s="4">
         <v>76</v>
       </c>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4">
         <v>6</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="19.5" customHeight="1">
       <c r="A78" s="4">
         <v>77</v>
       </c>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4">
         <v>6</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>18</v>
@@ -2437,8 +2446,8 @@
       <c r="A79" s="4">
         <v>78</v>
       </c>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4">
         <v>6</v>
@@ -2447,125 +2456,151 @@
         <v>2</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1">
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-    </row>
-    <row r="81" spans="2:6" ht="16.5" customHeight="1">
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-    </row>
-    <row r="82" spans="2:6" ht="16.5" customHeight="1">
+      <c r="A80" s="4">
+        <v>79</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4">
+        <v>6</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A81" s="4">
+        <v>80</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4">
+        <v>6</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="16.5" customHeight="1">
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="2:6" ht="16.5" customHeight="1">
+    <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="2:6" ht="16.5" customHeight="1">
+    <row r="84" spans="1:8" ht="16.5" customHeight="1">
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="2:6" ht="16.5" customHeight="1">
+    <row r="85" spans="1:8" ht="16.5" customHeight="1">
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="2:6" ht="16.5" customHeight="1">
+    <row r="86" spans="1:8" ht="16.5" customHeight="1">
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="2:6" ht="16.5" customHeight="1">
+    <row r="87" spans="1:8" ht="16.5" customHeight="1">
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="2:6" ht="16.5" customHeight="1">
+    <row r="88" spans="1:8" ht="16.5" customHeight="1">
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="2:6" ht="16.5" customHeight="1">
+    <row r="89" spans="1:8" ht="16.5" customHeight="1">
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="2:6" ht="16.5" customHeight="1">
+    <row r="90" spans="1:8" ht="16.5" customHeight="1">
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="2:6" ht="16.5" customHeight="1">
+    <row r="91" spans="1:8" ht="16.5" customHeight="1">
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="2:6" ht="16.5" customHeight="1">
+    <row r="92" spans="1:8" ht="16.5" customHeight="1">
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="2:6" ht="16.5" customHeight="1">
+    <row r="93" spans="1:8" ht="16.5" customHeight="1">
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="2:6" ht="16.5" customHeight="1">
+    <row r="94" spans="1:8" ht="16.5" customHeight="1">
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="2:6" ht="16.5" customHeight="1">
+    <row r="95" spans="1:8" ht="16.5" customHeight="1">
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="2:6" ht="16.5" customHeight="1">
+    <row r="96" spans="1:8" ht="16.5" customHeight="1">
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -9378,10 +9413,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B2:B79"/>
     <mergeCell ref="C2:C23"/>
-    <mergeCell ref="C24:C47"/>
-    <mergeCell ref="C48:C79"/>
+    <mergeCell ref="B2:B81"/>
+    <mergeCell ref="C24:C48"/>
+    <mergeCell ref="C49:C81"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Assets/Dialogs/DialogDB_Lake.xlsx
+++ b/Assets/Dialogs/DialogDB_Lake.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b4d1236af1f427cd/Documents/GitHub/LGHNH_Project/Assets/Dialogs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\230831_2146\LGHNH_Project\Assets\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{3E41BC11-5BA0-49F2-88B8-6CDC85ADCFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17B51DD5-2143-49C0-9D0E-C039F0E13432}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1932C8B9-6E60-44B0-BD8B-88DA0C16E53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="10350" windowWidth="24240" windowHeight="13020" xr2:uid="{CDE8FF25-D89C-42B6-B5F0-688FBD2DA1BA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{CDE8FF25-D89C-42B6-B5F0-688FBD2DA1BA}"/>
   </bookViews>
   <sheets>
     <sheet name="lake" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="108">
   <si>
     <t>기쁨</t>
   </si>
@@ -101,9 +101,6 @@
     <t>앞으로도 세상을 돌아다니며 많은 곳을 보고 느끼게 되겠지. 많은 시련이 닥쳐오겠지만 너무 걱정하지 말아라. 너희는 강하니까.</t>
   </si>
   <si>
-    <t xml:space="preserve">새로운 여행아이야! 그리고 리비! 너희들은 이제 어엿한 닥터로 거듭났단다. </t>
-  </si>
-  <si>
     <t>당신의 흔적이 없었다면 해내지 못했을 거에요, 럭키.</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
     <t>하지만 아주 먼 옛날 사라졌다고 들었는데 어떻게 지금 나타날 수 있게 된 거지?</t>
   </si>
   <si>
-    <t xml:space="preserve">그렇단다! 새로운 여행아이야. </t>
-  </si>
-  <si>
     <t>당신이 럭키군요! 아주 먼 옛날 알라야 마운틴을 정화시킨 닥터!</t>
   </si>
   <si>
@@ -164,9 +158,6 @@
     <t>골드비 킹의 증표로, 이걸 지니고 계시면 황금 펌프에 오를 수 있지요.</t>
   </si>
   <si>
-    <t xml:space="preserve">과연 그렇군요. 감사의 의미에서 제 털의 일부를 드리겠습니다. </t>
-  </si>
-  <si>
     <t>하지만 여기까지 오느라 많이 힘들었던 것도 사실이에요.</t>
   </si>
   <si>
@@ -203,9 +194,6 @@
     <t>헤헷 덩치 큰 친구가 일어났으니 이제 마을로 들어갈 수 있겠네?</t>
   </si>
   <si>
-    <t xml:space="preserve">여행아이님과 리비님 덕에 모두가 기운을 차릴 수 있었어. </t>
-  </si>
-  <si>
     <t>으음...! 내가 얼마나 정신을 잃고 있었던 거지?</t>
   </si>
   <si>
@@ -218,9 +206,6 @@
     <t>물론이지. 리비! 도와주겠어?</t>
   </si>
   <si>
-    <t>부디 아직 회복이 덜 된 저희를 대신해 솔라넥타르  호수에서 허니젤리를 모아주세요!</t>
-  </si>
-  <si>
     <t>다른 골드비들은 지금쯤 정신을 차렸겠지만..., 병정 골드비는 무척 거대하기 때문에 아직 회복이 더딜거에요.</t>
   </si>
   <si>
@@ -254,9 +239,6 @@
     <t>알라야 마운틴의 진짜 정상에 오신 것을 환영해요!</t>
   </si>
   <si>
-    <t xml:space="preserve">우리 골드비들의 자랑스러운 터전이자 영원히 아름다운 보금자리죠. </t>
-  </si>
-  <si>
     <t>이 호수만큼은 산 정상에 있어서 그런지 다른 곳들이 오염되는 동안에도 무사할 수 있었어요.</t>
   </si>
   <si>
@@ -275,9 +257,6 @@
     <t>우리 골드비들이 먹는 허니젤리가 그곳에 있거든요. 가는 길에 챙겨가면 모두 기뻐할 거에요!</t>
   </si>
   <si>
-    <t xml:space="preserve">솔라넥타르 호수? </t>
-  </si>
-  <si>
     <t>아 그렇다면 가는 길에 솔라넥타르 호수를 들렀다 가도록 해요.</t>
   </si>
   <si>
@@ -296,9 +275,6 @@
     <t>랜턴에 햇빛에 닿으면 강한 빛을 내뿜어 안개를 제거할 수 있을거에요!</t>
   </si>
   <si>
-    <t xml:space="preserve">바로 솔라리온이라고 불리는 마법의 랜턴이죠. </t>
-  </si>
-  <si>
     <t>먼 옛날 이곳을 정화하셨던 럭키님의 랜턴이 이 황금생강나무 숲 어딘가에 숨겨져있어요!</t>
   </si>
   <si>
@@ -317,9 +293,6 @@
     <t>많이 야윈 것 같은에 괜찮은거야?</t>
   </si>
   <si>
-    <t>깜짝이야! 잠깐...,  솔라넥타르 호수에 서식하는 골드비잖아?</t>
-  </si>
-  <si>
     <t>드디어! 우리를 구해주실 여행아이님이 오셨군요!</t>
   </si>
   <si>
@@ -357,6 +330,37 @@
   </si>
   <si>
     <t>럭키에게 카메라 이동</t>
+  </si>
+  <si>
+    <t>깜짝이야! 잠깐..., 솔라넥타르 호수에 서식하는 골드비잖아?</t>
+  </si>
+  <si>
+    <t>바로 솔라리온이라고 불리는 마법의 랜턴이죠.</t>
+  </si>
+  <si>
+    <t>솔라넥타르 호수?</t>
+  </si>
+  <si>
+    <t>우리 골드비들의 자랑스러운 터전이자 영원히 아름다운 보금자리죠.</t>
+  </si>
+  <si>
+    <t>부디 아직 회복이 덜 된 저희를 대신해 솔라넥타르 호수에서 허니젤리를 모아주세요!</t>
+  </si>
+  <si>
+    <t>여행아이님과 리비님 덕에 모두가 기운을 차릴 수 있었어.</t>
+  </si>
+  <si>
+    <t>과연 그렇군요. 감사의 의미에서 제 털의 일부를 드리겠습니다.</t>
+  </si>
+  <si>
+    <t>그렇단다! 새로운 여행아이야.</t>
+  </si>
+  <si>
+    <t>새로운 여행아이야! 그리고 리비! 너희들은 이제 어엿한 닥터로 거듭났단다.</t>
+  </si>
+  <si>
+    <t>완성물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -394,11 +398,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;Malgun Gothic&quot;"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,19 +413,19 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -446,8 +445,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -475,11 +486,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -493,41 +534,50 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,10 +594,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -849,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577302B0-5A97-4F5B-826D-4E51A8831A25}">
   <dimension ref="A1:H1068"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="15" customHeight="1"/>
@@ -867,1638 +913,1638 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>99</v>
+      <c r="B2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="4">
+        <v>92</v>
+      </c>
+      <c r="E2" s="13">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H2" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="4">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="15">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H3" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="4">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="15">
         <v>1</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H4" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="4">
+      <c r="E5" s="15">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H5" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="4">
+      <c r="E6" s="15">
         <v>1</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H6" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="4">
+      <c r="E7" s="15">
         <v>1</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H7" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="4">
+      <c r="E8" s="15">
         <v>1</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H8" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="4">
+      <c r="E9" s="15">
         <v>1</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="F9" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H9" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="4">
+      <c r="E10" s="15">
         <v>1</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="F10" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H10" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="4">
+      <c r="E11" s="15">
         <v>1</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H11" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="4">
+      <c r="E12" s="15">
         <v>1</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H12" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="4">
+      <c r="E13" s="15">
         <v>1</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="F13" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H13" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="4">
+      <c r="E14" s="15">
         <v>1</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="4" t="s">
+      <c r="F14" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H14" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="4">
+      <c r="E15" s="15">
         <v>1</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="F15" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H15" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="4">
+      <c r="E16" s="15">
         <v>1</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H16" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="4">
+        <v>93</v>
+      </c>
+      <c r="E17" s="15">
         <v>2</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H17" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="4">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="15">
         <v>2</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="4" t="s">
+      <c r="F18" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H18" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="4">
+      <c r="E19" s="15">
         <v>2</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H19" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="4">
+      <c r="E20" s="15">
         <v>2</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="F20" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H20" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="4">
+      <c r="E21" s="15">
         <v>2</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H21" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="4">
+      <c r="E22" s="15">
         <v>2</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="4" t="s">
+      <c r="F22" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H22" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="4">
+      <c r="E23" s="15">
         <v>2</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H23" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="16" t="s">
-        <v>76</v>
+      <c r="B24" s="10"/>
+      <c r="C24" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="4">
+        <v>92</v>
+      </c>
+      <c r="E24" s="15">
         <v>3</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H24" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H24" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="4">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="15">
         <v>3</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H25" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="4">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="15">
         <v>3</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="4" t="s">
+      <c r="F26" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H26" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="4">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="15">
         <v>3</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="4" t="s">
+      <c r="F27" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H27" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="4">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="15">
         <v>3</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="4" t="s">
+      <c r="F28" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H28" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="4">
+      <c r="E29" s="15">
         <v>3</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" s="4" t="s">
+      <c r="F29" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H29" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="4">
+      <c r="E30" s="15">
         <v>3</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G30" s="4" t="s">
+      <c r="F30" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H30" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H30" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="4">
+      <c r="E31" s="15">
         <v>3</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G31" s="4" t="s">
+      <c r="F31" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H31" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="4">
+      <c r="E32" s="15">
         <v>3</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G32" s="4" t="s">
+      <c r="F32" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H32" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H32" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="4">
+      <c r="E33" s="15">
         <v>3</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="4" t="s">
+      <c r="F33" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H33" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H33" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="4">
+      <c r="E34" s="15">
         <v>3</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G34" s="4" t="s">
+      <c r="F34" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H34" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H34" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="4">
+      <c r="E35" s="15">
         <v>3</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H35" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H35" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="4">
+      <c r="E36" s="15">
         <v>3</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H36" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H36" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="4">
+      <c r="E37" s="15">
         <v>3</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="19.5" customHeight="1">
+    </row>
+    <row r="38" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="4">
+      <c r="E38" s="15">
         <v>3</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G38" s="4" t="s">
+      <c r="F38" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G38" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H38" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H38" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="4">
+      <c r="E39" s="15">
         <v>3</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G39" s="4" t="s">
+      <c r="F39" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H39" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H39" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="4">
+      <c r="E40" s="15">
         <v>3</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H40" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H40" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="4">
+      <c r="E41" s="15">
         <v>3</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H41" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H41" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="19.5" customHeight="1">
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="4">
+      <c r="E43" s="15">
         <v>4</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G43" s="4" t="s">
+      <c r="F43" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H43" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H43" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="4">
+      <c r="E44" s="15">
         <v>4</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G44" s="4" t="s">
+      <c r="F44" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G44" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H44" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H44" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="4">
+      <c r="E45" s="15">
         <v>4</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G45" s="4" t="s">
+      <c r="F45" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H45" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H45" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="4">
+      <c r="E46" s="15">
         <v>4</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="G46" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H46" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H46" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="4">
+      <c r="E47" s="15">
         <v>4</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G47" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H47" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H47" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="4">
+      <c r="E48" s="15">
         <v>4</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G48" s="4" t="s">
+      <c r="F48" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G48" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H48" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H48" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="16" t="s">
-        <v>51</v>
+      <c r="B49" s="10"/>
+      <c r="C49" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E49" s="4">
+        <v>92</v>
+      </c>
+      <c r="E49" s="15">
         <v>5</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G49" s="4" t="s">
+      <c r="F49" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G49" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H49" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H49" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="4">
+      <c r="E50" s="15">
         <v>5</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G50" s="4" t="s">
+      <c r="F50" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G50" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H50" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H50" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
       <c r="D51" s="4"/>
-      <c r="E51" s="4">
+      <c r="E51" s="15">
         <v>5</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="G51" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H51" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H51" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A52" s="4">
         <v>51</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="4">
+      <c r="E52" s="15">
         <v>5</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G52" s="4" t="s">
+      <c r="F52" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H52" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H52" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
       <c r="D53" s="4"/>
-      <c r="E53" s="4">
+      <c r="E53" s="15">
         <v>5</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="G53" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H53" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H53" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
       <c r="D54" s="4"/>
-      <c r="E54" s="4">
+      <c r="E54" s="15">
         <v>5</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G54" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H54" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H54" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A55" s="4">
         <v>54</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="4">
+      <c r="E55" s="15">
         <v>5</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G55" s="4" t="s">
+      <c r="F55" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H55" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H55" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A56" s="4">
         <v>55</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
       <c r="D56" s="4"/>
-      <c r="E56" s="4">
+      <c r="E56" s="15">
         <v>5</v>
       </c>
-      <c r="F56" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G56" s="4" t="s">
+      <c r="F56" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G56" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H56" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H56" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A57" s="4">
         <v>56</v>
       </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
       <c r="D57" s="4"/>
-      <c r="E57" s="4">
+      <c r="E57" s="15">
         <v>5</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="G57" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H57" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H57" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
       <c r="D58" s="4"/>
-      <c r="E58" s="4">
+      <c r="E58" s="15">
         <v>5</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F58" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G58" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H58" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H58" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A59" s="4">
         <v>58</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
       <c r="D59" s="4"/>
-      <c r="E59" s="4">
+      <c r="E59" s="15">
         <v>5</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H59" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G59" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="19.5" customHeight="1">
+    </row>
+    <row r="60" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A60" s="4">
         <v>59</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
       <c r="D60" s="4"/>
-      <c r="E60" s="4">
+      <c r="E60" s="15">
         <v>5</v>
       </c>
-      <c r="F60" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="19.5" customHeight="1">
+      <c r="F60" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H60" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A61" s="4">
         <v>60</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
       <c r="D61" s="4"/>
-      <c r="E61" s="4">
+      <c r="E61" s="15">
         <v>5</v>
       </c>
-      <c r="F61" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G61" s="4" t="s">
+      <c r="F61" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G61" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H61" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H61" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A62" s="4">
         <v>61</v>
       </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
       <c r="D62" s="4"/>
-      <c r="E62" s="4">
+      <c r="E62" s="15">
         <v>5</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="G62" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H62" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H62" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A63" s="4">
         <v>62</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
       <c r="D63" s="4"/>
-      <c r="E63" s="4">
+      <c r="E63" s="15">
         <v>5</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="G63" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H63" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H63" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A64" s="4">
         <v>63</v>
       </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="19.5" customHeight="1">
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A65" s="4">
         <v>64</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
       <c r="D65" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="15">
         <v>6</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F65" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="G65" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H65" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H65" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A66" s="4">
         <v>65</v>
       </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
       <c r="D66" s="4"/>
-      <c r="E66" s="4">
+      <c r="E66" s="15">
         <v>6</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="G66" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H66" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H66" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A67" s="4">
         <v>66</v>
       </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
       <c r="D67" s="4"/>
-      <c r="E67" s="4">
+      <c r="E67" s="15">
         <v>6</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F67" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="G67" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H67" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H67" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A68" s="4">
         <v>67</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="4">
+      <c r="E68" s="15">
         <v>6</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="G68" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H68" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H68" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A69" s="4">
         <v>68</v>
       </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
       <c r="D69" s="4"/>
-      <c r="E69" s="4">
+      <c r="E69" s="15">
         <v>6</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="G69" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H69" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H69" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A70" s="4">
         <v>69</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="4">
+      <c r="E70" s="15">
         <v>6</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="G70" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H70" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H70" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A71" s="4">
         <v>70</v>
       </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
       <c r="D71" s="4"/>
-      <c r="E71" s="4">
+      <c r="E71" s="15">
         <v>6</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F71" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G71" s="4" t="s">
+      <c r="G71" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H71" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H71" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A72" s="4">
         <v>71</v>
       </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
       <c r="D72" s="4"/>
-      <c r="E72" s="4">
+      <c r="E72" s="15">
         <v>6</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="F72" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G72" s="4" t="s">
+      <c r="G72" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H72" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H72" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A73" s="4">
         <v>72</v>
       </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="4">
+      <c r="E73" s="15">
         <v>6</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F73" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G73" s="4" t="s">
+      <c r="G73" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H73" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H73" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A74" s="4">
         <v>73</v>
       </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
       <c r="D74" s="4"/>
-      <c r="E74" s="4">
+      <c r="E74" s="15">
         <v>6</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="F74" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G74" s="4" t="s">
+      <c r="G74" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H74" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H74" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A75" s="4">
         <v>74</v>
       </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
       <c r="D75" s="4"/>
-      <c r="E75" s="4">
+      <c r="E75" s="15">
         <v>6</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F75" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G75" s="4" t="s">
+      <c r="G75" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H75" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H75" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A76" s="4">
         <v>75</v>
       </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
       <c r="D76" s="4"/>
-      <c r="E76" s="4">
+      <c r="E76" s="15">
         <v>6</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="F76" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="G76" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H76" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H76" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A77" s="4">
         <v>76</v>
       </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
       <c r="D77" s="4"/>
-      <c r="E77" s="4">
+      <c r="E77" s="15">
         <v>6</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F77" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G77" s="4" t="s">
+      <c r="G77" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H77" s="6" t="s">
+      <c r="H77" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="19.5" customHeight="1">
+    <row r="78" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A78" s="4">
         <v>77</v>
       </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
       <c r="D78" s="4"/>
-      <c r="E78" s="4">
+      <c r="E78" s="15">
         <v>6</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="F78" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="G78" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H78" s="6" t="s">
+      <c r="H78" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="19.5" customHeight="1">
+    <row r="79" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A79" s="4">
         <v>78</v>
       </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
       <c r="D79" s="4"/>
-      <c r="E79" s="4">
+      <c r="E79" s="15">
         <v>6</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="F79" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="G79" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H79" s="6" t="s">
+      <c r="H79" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="16.5" customHeight="1">
+    <row r="80" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="A80" s="4">
         <v>79</v>
       </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
       <c r="D80" s="4"/>
-      <c r="E80" s="4">
+      <c r="E80" s="15">
         <v>6</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F80" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G80" s="4" t="s">
+      <c r="G80" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H80" s="6" t="s">
+      <c r="H80" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="16.5" customHeight="1">
+    <row r="81" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="A81" s="4">
         <v>80</v>
       </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
       <c r="D81" s="4"/>
-      <c r="E81" s="4">
+      <c r="E81" s="15">
         <v>6</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="F81" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G81" s="4" t="s">
+      <c r="G81" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H81" s="6" t="s">
+      <c r="H81" s="17" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Assets/Dialogs/DialogDB_Lake.xlsx
+++ b/Assets/Dialogs/DialogDB_Lake.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\230831_2146\LGHNH_Project\Assets\Dialogs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\230913_1622\LGHNH_Project\Assets\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1932C8B9-6E60-44B0-BD8B-88DA0C16E53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E152C9-2523-4512-852C-47B450D3D861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{CDE8FF25-D89C-42B6-B5F0-688FBD2DA1BA}"/>
+    <workbookView xWindow="2620" yWindow="2620" windowWidth="19200" windowHeight="11170" xr2:uid="{CDE8FF25-D89C-42B6-B5F0-688FBD2DA1BA}"/>
   </bookViews>
   <sheets>
     <sheet name="lake" sheetId="4" r:id="rId1"/>
@@ -36,29 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="108">
-  <si>
-    <t>기쁨</t>
-  </si>
-  <si>
-    <t>기본</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="110">
   <si>
     <t>여행아이</t>
   </si>
   <si>
-    <t>우울</t>
-  </si>
-  <si>
     <t>리비</t>
   </si>
   <si>
     <t>완료</t>
   </si>
   <si>
-    <t>피곤</t>
-  </si>
-  <si>
     <t>dialog</t>
   </si>
   <si>
@@ -359,7 +347,31 @@
     <t>새로운 여행아이야! 그리고 리비! 너희들은 이제 어엿한 닥터로 거듭났단다.</t>
   </si>
   <si>
-    <t>완성물</t>
+    <t>Joy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tired</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perfect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -546,18 +558,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -578,6 +578,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -893,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577302B0-5A97-4F5B-826D-4E51A8831A25}">
-  <dimension ref="A1:H1068"/>
+  <dimension ref="A1:I1068"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="15" customHeight="1"/>
@@ -908,1644 +923,1768 @@
     <col min="6" max="6" width="8.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="115.5" style="1" customWidth="1"/>
-    <col min="9" max="26" width="8" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="16" customWidth="1"/>
+    <col min="10" max="26" width="8" style="1" customWidth="1"/>
     <col min="27" max="16384" width="13.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="35.25" customHeight="1" thickBot="1">
+    <row r="1" spans="1:9" ht="35.25" customHeight="1" thickBot="1">
       <c r="A1" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+        <v>3</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>90</v>
+      <c r="B2" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="13">
+        <v>88</v>
+      </c>
+      <c r="E2" s="9">
         <v>1</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="15">
+      <c r="E3" s="11">
         <v>1</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="15">
+      <c r="E4" s="11">
         <v>1</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="15" t="s">
+      <c r="F4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="G4" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <v>1</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="15">
+      <c r="E6" s="11">
         <v>1</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="15">
+      <c r="E7" s="11">
         <v>1</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="15" t="s">
+      <c r="F7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="G7" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="15">
+      <c r="E8" s="11">
         <v>1</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="15">
+      <c r="E9" s="11">
         <v>1</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="15">
+      <c r="E10" s="11">
         <v>1</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="15">
+      <c r="E11" s="11">
         <v>1</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="15" t="s">
+      <c r="F11" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="G11" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="15">
+      <c r="E12" s="11">
         <v>1</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="15">
+      <c r="E13" s="11">
         <v>1</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="15">
+      <c r="E14" s="11">
         <v>1</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="15">
+      <c r="E15" s="11">
         <v>1</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="15">
+      <c r="E16" s="11">
         <v>1</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F16" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="15">
+        <v>89</v>
+      </c>
+      <c r="E17" s="11">
         <v>2</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="15">
+      <c r="E18" s="11">
         <v>2</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="15">
+      <c r="E19" s="11">
         <v>2</v>
       </c>
-      <c r="F19" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F19" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="15">
+      <c r="E20" s="11">
         <v>2</v>
       </c>
-      <c r="F20" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="15">
+      <c r="E21" s="11">
         <v>2</v>
       </c>
-      <c r="F21" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="15" t="s">
+      <c r="F21" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H21" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="G21" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="15">
+      <c r="E22" s="11">
         <v>2</v>
       </c>
-      <c r="F22" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F22" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="15">
+      <c r="E23" s="11">
         <v>2</v>
       </c>
-      <c r="F23" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23" s="15" t="s">
+      <c r="F23" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="G23" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="12" t="s">
-        <v>70</v>
+      <c r="B24" s="18"/>
+      <c r="C24" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" s="15">
+        <v>88</v>
+      </c>
+      <c r="E24" s="11">
         <v>3</v>
       </c>
-      <c r="F24" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F24" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="15">
+      <c r="E25" s="11">
         <v>3</v>
       </c>
-      <c r="F25" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G25" s="15" t="s">
+      <c r="F25" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H25" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="G25" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="15">
+      <c r="E26" s="11">
         <v>3</v>
       </c>
-      <c r="F26" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F26" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="15">
+      <c r="E27" s="11">
         <v>3</v>
       </c>
-      <c r="F27" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F27" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="15">
+      <c r="E28" s="11">
         <v>3</v>
       </c>
-      <c r="F28" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F28" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="15">
+      <c r="E29" s="11">
         <v>3</v>
       </c>
-      <c r="F29" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F29" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="15">
+      <c r="E30" s="11">
         <v>3</v>
       </c>
-      <c r="F30" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F30" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="15">
+      <c r="E31" s="11">
         <v>3</v>
       </c>
-      <c r="F31" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F31" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="15">
+      <c r="E32" s="11">
         <v>3</v>
       </c>
-      <c r="F32" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F32" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="15">
+      <c r="E33" s="11">
         <v>3</v>
       </c>
-      <c r="F33" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H33" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F33" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="15">
+      <c r="E34" s="11">
         <v>3</v>
       </c>
-      <c r="F34" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F34" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="15">
+      <c r="E35" s="11">
         <v>3</v>
       </c>
-      <c r="F35" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" s="15" t="s">
+      <c r="F35" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H35" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="G35" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="15">
+      <c r="E36" s="11">
         <v>3</v>
       </c>
-      <c r="F36" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H36" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F36" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="15">
+      <c r="E37" s="11">
         <v>3</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H37" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H37" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="I37" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="15">
+      <c r="E38" s="11">
         <v>3</v>
       </c>
-      <c r="F38" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H38" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F38" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="15">
+      <c r="E39" s="11">
         <v>3</v>
       </c>
-      <c r="F39" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F39" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I39" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="15">
+      <c r="E40" s="11">
         <v>3</v>
       </c>
-      <c r="F40" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G40" s="15" t="s">
+      <c r="F40" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H40" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="G40" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="15">
+      <c r="E41" s="11">
         <v>3</v>
       </c>
-      <c r="F41" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H41" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F41" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+        <v>90</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="15">
+      <c r="E43" s="11">
         <v>4</v>
       </c>
-      <c r="F43" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H43" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F43" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I43" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="15">
+      <c r="E44" s="11">
         <v>4</v>
       </c>
-      <c r="F44" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H44" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F44" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="15">
+      <c r="E45" s="11">
         <v>4</v>
       </c>
-      <c r="F45" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H45" s="16" t="s">
+      <c r="F45" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G45" s="9" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="H45" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I45" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="15">
+      <c r="E46" s="11">
         <v>4</v>
       </c>
-      <c r="F46" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H46" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F46" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="15">
+      <c r="E47" s="11">
         <v>4</v>
       </c>
-      <c r="F47" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G47" s="15" t="s">
+      <c r="F47" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H47" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="G47" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="15">
+      <c r="E48" s="11">
         <v>4</v>
       </c>
-      <c r="F48" s="15" t="s">
+      <c r="F48" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H48" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G48" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H48" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="I48" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="12" t="s">
-        <v>48</v>
+      <c r="B49" s="18"/>
+      <c r="C49" s="20" t="s">
+        <v>44</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E49" s="15">
+        <v>88</v>
+      </c>
+      <c r="E49" s="11">
         <v>5</v>
       </c>
-      <c r="F49" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H49" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F49" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="15">
+      <c r="E50" s="11">
         <v>5</v>
       </c>
-      <c r="F50" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H50" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F50" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I50" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="4"/>
-      <c r="E51" s="15">
+      <c r="E51" s="11">
         <v>5</v>
       </c>
-      <c r="F51" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G51" s="15" t="s">
+      <c r="F51" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H51" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="G51" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A52" s="4">
         <v>51</v>
       </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="15">
+      <c r="E52" s="11">
         <v>5</v>
       </c>
-      <c r="F52" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H52" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F52" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I52" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
       <c r="D53" s="4"/>
-      <c r="E53" s="15">
+      <c r="E53" s="11">
         <v>5</v>
       </c>
-      <c r="F53" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H53" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F53" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
       <c r="D54" s="4"/>
-      <c r="E54" s="15">
+      <c r="E54" s="11">
         <v>5</v>
       </c>
-      <c r="F54" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F54" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A55" s="4">
         <v>54</v>
       </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="15">
+      <c r="E55" s="11">
         <v>5</v>
       </c>
-      <c r="F55" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H55" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F55" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I55" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A56" s="4">
         <v>55</v>
       </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="4"/>
-      <c r="E56" s="15">
+      <c r="E56" s="11">
         <v>5</v>
       </c>
-      <c r="F56" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H56" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F56" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I56" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A57" s="4">
         <v>56</v>
       </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="4"/>
-      <c r="E57" s="15">
+      <c r="E57" s="11">
         <v>5</v>
       </c>
-      <c r="F57" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H57" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F57" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="4"/>
-      <c r="E58" s="15">
+      <c r="E58" s="11">
         <v>5</v>
       </c>
-      <c r="F58" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="15" t="s">
+      <c r="F58" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H58" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="G58" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A59" s="4">
         <v>58</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="4"/>
-      <c r="E59" s="15">
+      <c r="E59" s="11">
         <v>5</v>
       </c>
-      <c r="F59" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H59" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F59" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I59" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A60" s="4">
         <v>59</v>
       </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
       <c r="D60" s="4"/>
-      <c r="E60" s="15">
+      <c r="E60" s="11">
         <v>5</v>
       </c>
-      <c r="F60" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G60" s="15" t="s">
+      <c r="F60" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="H60" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="H60" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I60" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A61" s="4">
         <v>60</v>
       </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
       <c r="D61" s="4"/>
-      <c r="E61" s="15">
+      <c r="E61" s="11">
         <v>5</v>
       </c>
-      <c r="F61" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H61" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F61" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I61" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A62" s="4">
         <v>61</v>
       </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
       <c r="D62" s="4"/>
-      <c r="E62" s="15">
+      <c r="E62" s="11">
         <v>5</v>
       </c>
-      <c r="F62" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H62" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F62" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A63" s="4">
         <v>62</v>
       </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="4"/>
-      <c r="E63" s="15">
+      <c r="E63" s="11">
         <v>5</v>
       </c>
-      <c r="F63" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G63" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H63" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F63" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A64" s="4">
         <v>63</v>
       </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+        <v>90</v>
+      </c>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A65" s="4">
         <v>64</v>
       </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E65" s="15">
+        <v>2</v>
+      </c>
+      <c r="E65" s="11">
         <v>6</v>
       </c>
-      <c r="F65" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H65" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F65" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I65" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A66" s="4">
         <v>65</v>
       </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="4"/>
-      <c r="E66" s="15">
+      <c r="E66" s="11">
         <v>6</v>
       </c>
-      <c r="F66" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G66" s="15" t="s">
+      <c r="F66" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H66" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="G66" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A67" s="4">
         <v>66</v>
       </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
       <c r="D67" s="4"/>
-      <c r="E67" s="15">
+      <c r="E67" s="11">
         <v>6</v>
       </c>
-      <c r="F67" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G67" s="15" t="s">
+      <c r="F67" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H67" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="G67" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A68" s="4">
         <v>67</v>
       </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="15">
+      <c r="E68" s="11">
         <v>6</v>
       </c>
-      <c r="F68" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H68" s="16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F68" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I68" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A69" s="4">
         <v>68</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
       <c r="D69" s="4"/>
-      <c r="E69" s="15">
+      <c r="E69" s="11">
         <v>6</v>
       </c>
-      <c r="F69" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G69" s="15" t="s">
+      <c r="F69" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H69" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="G69" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A70" s="4">
         <v>69</v>
       </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="15">
+      <c r="E70" s="11">
         <v>6</v>
       </c>
-      <c r="F70" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H70" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F70" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I70" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A71" s="4">
         <v>70</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="4"/>
-      <c r="E71" s="15">
+      <c r="E71" s="11">
         <v>6</v>
       </c>
-      <c r="F71" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H71" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F71" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A72" s="4">
         <v>71</v>
       </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="4"/>
-      <c r="E72" s="15">
+      <c r="E72" s="11">
         <v>6</v>
       </c>
-      <c r="F72" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H72" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F72" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A73" s="4">
         <v>72</v>
       </c>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="15">
+      <c r="E73" s="11">
         <v>6</v>
       </c>
-      <c r="F73" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G73" s="15" t="s">
+      <c r="F73" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H73" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="G73" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A74" s="4">
         <v>73</v>
       </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
       <c r="D74" s="4"/>
-      <c r="E74" s="15">
+      <c r="E74" s="11">
         <v>6</v>
       </c>
-      <c r="F74" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G74" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H74" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F74" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A75" s="4">
         <v>74</v>
       </c>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
       <c r="D75" s="4"/>
-      <c r="E75" s="15">
+      <c r="E75" s="11">
         <v>6</v>
       </c>
-      <c r="F75" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H75" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F75" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A76" s="4">
         <v>75</v>
       </c>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
       <c r="D76" s="4"/>
-      <c r="E76" s="15">
+      <c r="E76" s="11">
         <v>6</v>
       </c>
-      <c r="F76" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H76" s="16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F76" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H76" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="I76" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A77" s="4">
         <v>76</v>
       </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="4"/>
-      <c r="E77" s="15">
+      <c r="E77" s="11">
         <v>6</v>
       </c>
-      <c r="F77" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H77" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F77" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H77" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A78" s="4">
         <v>77</v>
       </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="4"/>
-      <c r="E78" s="15">
+      <c r="E78" s="11">
         <v>6</v>
       </c>
-      <c r="F78" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H78" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F78" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A79" s="4">
         <v>78</v>
       </c>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="4"/>
-      <c r="E79" s="15">
+      <c r="E79" s="11">
         <v>6</v>
       </c>
-      <c r="F79" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G79" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H79" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="F79" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H79" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A80" s="4">
         <v>79</v>
       </c>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="4"/>
-      <c r="E80" s="15">
+      <c r="E80" s="11">
         <v>6</v>
       </c>
-      <c r="F80" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G80" s="15" t="s">
+      <c r="F80" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H80" s="17" t="s">
-        <v>16</v>
+      <c r="G80" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H80" s="13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="A81" s="4">
         <v>80</v>
       </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
       <c r="D81" s="4"/>
-      <c r="E81" s="15">
+      <c r="E81" s="11">
         <v>6</v>
       </c>
-      <c r="F81" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G81" s="15" t="s">
+      <c r="F81" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H81" s="17" t="s">
-        <v>15</v>
+      <c r="G81" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H81" s="13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
